--- a/PostGraduation/Post-Graduation Recommendations.xlsx
+++ b/PostGraduation/Post-Graduation Recommendations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="159">
   <si>
     <t>Title</t>
   </si>
@@ -468,12 +468,39 @@
   <si>
     <t>Foundations for Architecting Data Solutions: Managing Successful Data Projects</t>
   </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Machine Learning Vocabulary Flash Cards ($16)</t>
+  </si>
+  <si>
+    <t>Chris Albon</t>
+  </si>
+  <si>
+    <t>Resume Resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example Template Resume </t>
+  </si>
+  <si>
+    <t>Data Science Resumes</t>
+  </si>
+  <si>
+    <t>Example: James' Resume</t>
+  </si>
+  <si>
+    <t>Google Sheets Version of THIS Document</t>
+  </si>
+  <si>
+    <t>Post-Graduation Recommendations.gsheet</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -582,6 +609,15 @@
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <color rgb="FF1155CC"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -627,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -801,6 +837,18 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -35094,7 +35142,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.88"/>
+    <col customWidth="1" min="1" max="1" width="22.38"/>
     <col customWidth="1" min="2" max="2" width="66.5"/>
     <col customWidth="1" min="3" max="3" width="89.38"/>
   </cols>
@@ -36005,9 +36053,15 @@
       <c r="Z29" s="52"/>
     </row>
     <row r="30">
-      <c r="A30" s="53"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
+      <c r="A30" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>152</v>
+      </c>
       <c r="D30" s="52"/>
       <c r="E30" s="52"/>
       <c r="F30" s="52"/>
@@ -36061,9 +36115,15 @@
       <c r="Z31" s="52"/>
     </row>
     <row r="32">
-      <c r="A32" s="53"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
+      <c r="A32" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>155</v>
+      </c>
       <c r="D32" s="52"/>
       <c r="E32" s="52"/>
       <c r="F32" s="52"/>
@@ -36089,9 +36149,12 @@
       <c r="Z32" s="52"/>
     </row>
     <row r="33">
-      <c r="A33" s="53"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
+      <c r="B33" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>155</v>
+      </c>
       <c r="D33" s="52"/>
       <c r="E33" s="52"/>
       <c r="F33" s="52"/>
@@ -36173,8 +36236,12 @@
       <c r="Z35" s="52"/>
     </row>
     <row r="36">
-      <c r="A36" s="53"/>
-      <c r="B36" s="52"/>
+      <c r="A36" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" s="60" t="s">
+        <v>158</v>
+      </c>
       <c r="C36" s="52"/>
       <c r="D36" s="52"/>
       <c r="E36" s="52"/>
@@ -63221,9 +63288,10 @@
       <c r="Z1001" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="A1:A5"/>
     <mergeCell ref="A7:A28"/>
-    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -63253,7 +63321,11 @@
     <hyperlink r:id="rId25" ref="B26"/>
     <hyperlink r:id="rId26" ref="B27"/>
     <hyperlink r:id="rId27" ref="B28"/>
+    <hyperlink r:id="rId28" ref="B30"/>
+    <hyperlink r:id="rId29" ref="B32"/>
+    <hyperlink r:id="rId30" ref="B33"/>
+    <hyperlink r:id="rId31" ref="B36"/>
   </hyperlinks>
-  <drawing r:id="rId28"/>
+  <drawing r:id="rId32"/>
 </worksheet>
 </file>